--- a/Striver SDE.xlsx
+++ b/Striver SDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding - Striver DSA CP &amp; Love Babbar DSA\Striver SDE Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A97306-D978-40C5-9C08-8AAECF6999F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE0AC4D-CE82-4E92-8A00-C59DFD1F1BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">All the Questions and Solutions are of SDE Sheer of striver_79 (take U forward) (striver_79) </t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/find-the-duplicate-number/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort an array of 0’s 1’s 2’s without using extra space or sorting algo </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-colors/</t>
   </si>
 </sst>
 </file>
@@ -85,13 +91,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,46 +394,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Striver SDE.xlsx
+++ b/Striver SDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding - Striver DSA CP &amp; Love Babbar DSA\Striver SDE Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE0AC4D-CE82-4E92-8A00-C59DFD1F1BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB81C94-2643-4208-9F4F-7FDD1AE4D720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">All the Questions and Solutions are of SDE Sheer of striver_79 (take U forward) (striver_79) </t>
   </si>
@@ -43,6 +43,30 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/sort-colors/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-a-repeating-and-a-missing-number/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repeat and Missing Number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge two sorted Arrays without extra space </t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/efficiently-merging-two-sorted-arrays-with-o1-extra-space/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/largest-sum-contiguous-subarray/</t>
+  </si>
+  <si>
+    <t>Kadane's algorithm</t>
+  </si>
+  <si>
+    <t>Merge Overlapping Subintervals</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-intervals/</t>
   </si>
 </sst>
 </file>
@@ -71,12 +95,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,16 +121,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,47 +412,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.42578125" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" customWidth="1"/>
+    <col min="2" max="2" width="86.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -435,14 +466,52 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Striver SDE.xlsx
+++ b/Striver SDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding - Striver DSA CP &amp; Love Babbar DSA\Striver SDE Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB81C94-2643-4208-9F4F-7FDD1AE4D720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3D1088-454E-4D26-BC6D-674D45D9206F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">All the Questions and Solutions are of SDE Sheer of striver_79 (take U forward) (striver_79) </t>
   </si>
@@ -67,13 +67,52 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/merge-intervals/</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/set-matrix-zeroes/</t>
+  </si>
+  <si>
+    <t>Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>Pascal Triangle</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pascals-triangle/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-permutation/</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Inversion Count (Using Merge Sort)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/counting-inversions/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/</t>
+  </si>
+  <si>
+    <t>Stock Buy and Sell</t>
+  </si>
+  <si>
+    <t>Rotate Image</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-image/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,17 +124,26 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +153,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -121,17 +175,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,47 +469,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.42578125" customWidth="1"/>
-    <col min="2" max="2" width="86.5703125" customWidth="1"/>
+    <col min="1" max="1" width="60.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="86.5703125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -460,58 +518,117 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Striver SDE.xlsx
+++ b/Striver SDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding - Striver DSA CP &amp; Love Babbar DSA\Striver SDE Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3D1088-454E-4D26-BC6D-674D45D9206F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB388C0-C1AE-482B-8631-7E8CBE89332D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">All the Questions and Solutions are of SDE Sheer of striver_79 (take U forward) (striver_79) </t>
   </si>
@@ -106,6 +106,45 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/rotate-image/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-a-2d-matrix/ | https://www.geeksforgeeks.org/search-in-row-wise-and-column-wise-sorted-matrix/</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Binary Search on 2D Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/powx-n/</t>
+  </si>
+  <si>
+    <t>Pow(x,n)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/majority-element/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/majority-element-ii/</t>
+  </si>
+  <si>
+    <t>Majority Element (Moore Voting algo) (&gt;N/2)</t>
+  </si>
+  <si>
+    <t>Majority Element (Moore Voting algo) (&gt;N/3)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-paths/</t>
+  </si>
+  <si>
+    <t>Grid Unique Paths</t>
+  </si>
+  <si>
+    <t>Reverse Pairs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-pairs/</t>
   </si>
 </sst>
 </file>
@@ -178,9 +217,6 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -189,6 +225,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,48 +508,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="86.5703125" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="60.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="86.5703125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -518,58 +557,58 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -577,58 +616,117 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Striver SDE.xlsx
+++ b/Striver SDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding - Striver DSA CP &amp; Love Babbar DSA\Striver SDE Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB388C0-C1AE-482B-8631-7E8CBE89332D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7494DCA-09F6-40E5-998E-AE600F807FF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">All the Questions and Solutions are of SDE Sheer of striver_79 (take U forward) (striver_79) </t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/reverse-pairs/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum/</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>Day 4</t>
   </si>
 </sst>
 </file>
@@ -508,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,6 +737,20 @@
       </c>
       <c r="C25" s="3"/>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Z1"/>

--- a/Striver SDE.xlsx
+++ b/Striver SDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding - Striver DSA CP &amp; Love Babbar DSA\Striver SDE Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7494DCA-09F6-40E5-998E-AE600F807FF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20253E23-0DE5-4B32-B2AA-C6A9122858D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">All the Questions and Solutions are of SDE Sheer of striver_79 (take U forward) (striver_79) </t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Day 4</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/4sum/</t>
+  </si>
+  <si>
+    <t>Four sum</t>
   </si>
 </sst>
 </file>
@@ -517,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,6 +757,15 @@
       </c>
       <c r="C28" s="3"/>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Z1"/>

--- a/Striver SDE.xlsx
+++ b/Striver SDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding - Striver DSA CP &amp; Love Babbar DSA\Striver SDE Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20253E23-0DE5-4B32-B2AA-C6A9122858D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C83EE8-3D18-493C-B89A-23C65B481989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">All the Questions and Solutions are of SDE Sheer of striver_79 (take U forward) (striver_79) </t>
   </si>
@@ -160,6 +160,30 @@
   </si>
   <si>
     <t>Four sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-consecutive-sequence/</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/largest-subarray-with-0-sum/1</t>
+  </si>
+  <si>
+    <t>Largest subarray with 0 sum</t>
+  </si>
+  <si>
+    <t>Question Not Found for submission</t>
+  </si>
+  <si>
+    <t>Count number of subarrays with given XOR</t>
+  </si>
+  <si>
+    <t>Longest substring without repeating characters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/</t>
   </si>
 </sst>
 </file>
@@ -197,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +240,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -229,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -242,6 +272,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,6 +800,42 @@
       </c>
       <c r="C29" s="3"/>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Z1"/>

--- a/Striver SDE.xlsx
+++ b/Striver SDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding - Striver DSA CP &amp; Love Babbar DSA\Striver SDE Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C83EE8-3D18-493C-B89A-23C65B481989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD150E5-75FE-402E-A52B-813503F43983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">All the Questions and Solutions are of SDE Sheer of striver_79 (take U forward) (striver_79) </t>
   </si>
@@ -184,6 +184,45 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/</t>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <t>Reverse a Linked List (Iterative and Recursive)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/middle-of-the-linked-list/</t>
+  </si>
+  <si>
+    <t>Middle of Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-nth-node-from-end-of-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-two-sorted-lists/</t>
+  </si>
+  <si>
+    <t>Merge two sorted Linked Lists</t>
+  </si>
+  <si>
+    <t>Remove N-th node from end of Linked List</t>
+  </si>
+  <si>
+    <t>Delete the given node of Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-node-in-a-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-two-numbers/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add two numbers as LinkedList  </t>
   </si>
 </sst>
 </file>
@@ -270,12 +309,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z33"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,34 +610,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -825,16 +864,75 @@
       <c r="B32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C33" s="3"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Striver SDE.xlsx
+++ b/Striver SDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding - Striver DSA CP &amp; Love Babbar DSA\Striver SDE Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD150E5-75FE-402E-A52B-813503F43983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B57AFB5-4BFB-4DD8-B02C-F11F88E79138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t xml:space="preserve">All the Questions and Solutions are of SDE Sheer of striver_79 (take U forward) (striver_79) </t>
   </si>
@@ -223,13 +223,80 @@
   </si>
   <si>
     <t xml:space="preserve">Add two numbers as LinkedList  </t>
+  </si>
+  <si>
+    <t>Day 6</t>
+  </si>
+  <si>
+    <t>Intersection point of Two Linked List (Y)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/intersection-of-two-linked-lists/</t>
+  </si>
+  <si>
+    <t>Detect Loop in Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-nodes-in-k-group/</t>
+  </si>
+  <si>
+    <t>Reverse a LinkedList in groups of size k</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-linked-list/</t>
+  </si>
+  <si>
+    <t>Check if Linked List is Palindrome</t>
+  </si>
+  <si>
+    <t>Find the starting node of Cycle</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle-ii/</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/flattening-a-linked-list/1</t>
+  </si>
+  <si>
+    <t>Flattening a Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-list/</t>
+  </si>
+  <si>
+    <r>
+      <t>Rotate the list to the right by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF546E7A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF263238"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> places</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +322,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF263238"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF546E7A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -298,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -316,6 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,6 +1016,74 @@
       </c>
       <c r="C41" s="3"/>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Z1"/>

--- a/Striver SDE.xlsx
+++ b/Striver SDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding - Striver DSA CP &amp; Love Babbar DSA\Striver SDE Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B57AFB5-4BFB-4DD8-B02C-F11F88E79138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FFAD9A-B790-4487-8A3E-F57EAC72207B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t xml:space="preserve">All the Questions and Solutions are of SDE Sheer of striver_79 (take U forward) (striver_79) </t>
   </si>
@@ -290,6 +290,39 @@
       </rPr>
       <t> places</t>
     </r>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/copy-list-with-random-pointer/</t>
+  </si>
+  <si>
+    <t>Day 7</t>
+  </si>
+  <si>
+    <t>Clone a Linked List with random and next pointer</t>
+  </si>
+  <si>
+    <t>3 sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/trapping-rain-water/</t>
+  </si>
+  <si>
+    <t>Trapping Rainwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Duplicate from Sorted array </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-consecutive-ones/</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones</t>
   </si>
 </sst>
 </file>
@@ -394,10 +427,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:Z57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,34 +725,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1076,13 +1109,63 @@
       <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C50" s="3"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Striver SDE.xlsx
+++ b/Striver SDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding - Striver DSA CP &amp; Love Babbar DSA\Striver SDE Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FFAD9A-B790-4487-8A3E-F57EAC72207B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7146E16-81DF-48F8-9912-E99AF7301D98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t xml:space="preserve">All the Questions and Solutions are of SDE Sheer of striver_79 (take U forward) (striver_79) </t>
   </si>
@@ -324,12 +324,45 @@
   <si>
     <t>Max Consecutive Ones</t>
   </si>
+  <si>
+    <t>Day 8</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/n-meetings-in-one-room-1587115620/1</t>
+  </si>
+  <si>
+    <t>N Meetings in one room</t>
+  </si>
+  <si>
+    <t>Minimum Number of Platforms Required for a Railway/Bus Station</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/minimum-platforms-1587115620/1</t>
+  </si>
+  <si>
+    <t>Greedy algorithm to find minimum number of coins</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/greedy-algorithm-to-find-minimum-number-of-coins/</t>
+  </si>
+  <si>
+    <t>Fractional Knapsack</t>
+  </si>
+  <si>
+    <t>Activity Selection</t>
+  </si>
+  <si>
+    <t>Job Sequencing</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/job-sequencing-problem-1587115620/1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +406,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -412,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -431,6 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z57"/>
+  <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,6 +1207,59 @@
       </c>
       <c r="C57" s="3"/>
     </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="8"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" s="8"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="8"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Z1"/>

--- a/Striver SDE.xlsx
+++ b/Striver SDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding - Striver DSA CP &amp; Love Babbar DSA\Striver SDE Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7146E16-81DF-48F8-9912-E99AF7301D98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C911E3A9-EC3D-4734-9FD4-AD8B6DD415F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t xml:space="preserve">All the Questions and Solutions are of SDE Sheer of striver_79 (take U forward) (striver_79) </t>
   </si>
@@ -357,12 +357,21 @@
   <si>
     <t>https://practice.geeksforgeeks.org/problems/job-sequencing-problem-1587115620/1</t>
   </si>
+  <si>
+    <t>Day 9</t>
+  </si>
+  <si>
+    <t>N Queens Problem</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/n-queen-problem0315/1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +421,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -448,10 +465,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -467,12 +485,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -751,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z65"/>
+  <dimension ref="A1:Z68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,34 +785,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1222,7 +1242,7 @@
       <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="11" t="s">
         <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -1259,6 +1279,20 @@
         <v>102</v>
       </c>
       <c r="C65" s="3"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Striver SDE.xlsx
+++ b/Striver SDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding - Striver DSA CP &amp; Love Babbar DSA\Striver SDE Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C911E3A9-EC3D-4734-9FD4-AD8B6DD415F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219928F5-5BB1-43AC-AC15-B899F26F86CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t xml:space="preserve">All the Questions and Solutions are of SDE Sheer of striver_79 (take U forward) (striver_79) </t>
   </si>
@@ -365,6 +365,36 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/n-queen-problem0315/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/solve-the-sudoku-1587115621/1</t>
+  </si>
+  <si>
+    <t>Sudoku</t>
+  </si>
+  <si>
+    <t>m Coloring Problem (graph)</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/m-coloring-problem-1587115620/1</t>
+  </si>
+  <si>
+    <t>Rat in a maze problem</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/rat-in-a-maze-problem/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/permutations-of-a-given-string/0</t>
+  </si>
+  <si>
+    <t>Permutations of a string</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/word-break1352/1</t>
+  </si>
+  <si>
+    <t>Word Break</t>
   </si>
 </sst>
 </file>
@@ -430,7 +460,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +485,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -469,7 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -486,10 +522,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -771,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z68"/>
+  <dimension ref="A1:Z73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,34 +823,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1289,10 +1327,55 @@
       <c r="A68" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Striver SDE.xlsx
+++ b/Striver SDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding - Striver DSA CP &amp; Love Babbar DSA\Striver SDE Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219928F5-5BB1-43AC-AC15-B899F26F86CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E777D2-F3B9-4751-838E-42E22FBC8C51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t xml:space="preserve">All the Questions and Solutions are of SDE Sheer of striver_79 (take U forward) (striver_79) </t>
   </si>
@@ -395,6 +395,33 @@
   </si>
   <si>
     <t>Word Break</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/combination-sum-1587115620/1</t>
+  </si>
+  <si>
+    <t>Day 10</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum-ii/</t>
+  </si>
+  <si>
+    <t>Combination Sum 2</t>
+  </si>
+  <si>
+    <t>Combination Sum 1</t>
+  </si>
+  <si>
+    <t>K-th Permutation Sequence</t>
+  </si>
+  <si>
+    <t>Subset Sum 1</t>
+  </si>
+  <si>
+    <t>Subset Sum 2</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning</t>
   </si>
 </sst>
 </file>
@@ -460,7 +487,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,6 +518,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -505,7 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -523,11 +556,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -809,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z73"/>
+  <dimension ref="A1:Z81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,34 +858,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1336,7 +1371,7 @@
       <c r="A69" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="13" t="s">
         <v>106</v>
       </c>
       <c r="C69" s="3"/>
@@ -1354,7 +1389,7 @@
       <c r="A71" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="13" t="s">
         <v>111</v>
       </c>
       <c r="C71" s="3"/>
@@ -1375,7 +1410,58 @@
       <c r="B73" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C73" s="15"/>
+      <c r="C73" s="14"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="15"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" s="15"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="14"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" s="8"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="8"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="8"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Striver SDE.xlsx
+++ b/Striver SDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding - Striver DSA CP &amp; Love Babbar DSA\Striver SDE Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E777D2-F3B9-4751-838E-42E22FBC8C51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE87C8BF-FFC9-4BEE-A8B9-172EEE429ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t xml:space="preserve">All the Questions and Solutions are of SDE Sheer of striver_79 (take U forward) (striver_79) </t>
   </si>
@@ -422,6 +422,30 @@
   </si>
   <si>
     <t>Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>Day 11</t>
+  </si>
+  <si>
+    <t>N-th root of a number</t>
+  </si>
+  <si>
+    <t>Matrix Median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the element that appears once in sorted array, and rest element appears twice (Binary search) </t>
+  </si>
+  <si>
+    <t>Search element in a sorted and rotated array</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays</t>
+  </si>
+  <si>
+    <t>K-th element of 2 sorted arrays</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/find-the-element-that-appears-once-in-sorted-array0624/1</t>
   </si>
 </sst>
 </file>
@@ -559,10 +583,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -844,48 +868,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z81"/>
+  <dimension ref="A1:Z89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="86.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="60.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="95.7109375" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1457,11 +1481,56 @@
       </c>
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C81" s="17"/>
+      <c r="C81" s="16"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="8"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="8"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" s="8"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="16"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Striver SDE.xlsx
+++ b/Striver SDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding - Striver DSA CP &amp; Love Babbar DSA\Striver SDE Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE87C8BF-FFC9-4BEE-A8B9-172EEE429ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6706A5-D29C-4C9E-81CC-57BCA84C78BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t xml:space="preserve">All the Questions and Solutions are of SDE Sheer of striver_79 (take U forward) (striver_79) </t>
   </si>
@@ -446,6 +446,30 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/find-the-element-that-appears-once-in-sorted-array0624/1</t>
+  </si>
+  <si>
+    <t>Day 12</t>
+  </si>
+  <si>
+    <t>Divide two integers without using multiplication, division, and mod operator.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/divide-two-integers/</t>
+  </si>
+  <si>
+    <t>Check Power of 2</t>
+  </si>
+  <si>
+    <t>Count set bits</t>
+  </si>
+  <si>
+    <t>Power set</t>
+  </si>
+  <si>
+    <t>MSB in O(1)</t>
+  </si>
+  <si>
+    <t>Square a number without multiplication or division operators</t>
   </si>
 </sst>
 </file>
@@ -868,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z89"/>
+  <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,6 +1556,50 @@
       </c>
       <c r="C89" s="16"/>
     </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="8"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92" s="8"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C94" s="8"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" s="8"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" s="8"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Z1"/>

--- a/Striver SDE.xlsx
+++ b/Striver SDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding - Striver DSA CP &amp; Love Babbar DSA\Striver SDE Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6706A5-D29C-4C9E-81CC-57BCA84C78BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7F08FF-02E9-493B-95AB-3A4B467C6B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="262">
   <si>
     <t xml:space="preserve">All the Questions and Solutions are of SDE Sheer of striver_79 (take U forward) (striver_79) </t>
   </si>
@@ -471,12 +471,375 @@
   <si>
     <t>Square a number without multiplication or division operators</t>
   </si>
+  <si>
+    <t>Day 13</t>
+  </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/maximum-of-all-subarrays-of-size-k3101/1</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Next Smaller Element</t>
+  </si>
+  <si>
+    <t>LRU cache</t>
+  </si>
+  <si>
+    <t>Largest Rectable in Histogram</t>
+  </si>
+  <si>
+    <t>Implement Stack/Queue</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>Implement Stack using Queue</t>
+  </si>
+  <si>
+    <t>Implement Queue using Stack</t>
+  </si>
+  <si>
+    <t>Check for Balanced Parantheses</t>
+  </si>
+  <si>
+    <t>Next Greater Element</t>
+  </si>
+  <si>
+    <t>Implement Min Stack</t>
+  </si>
+  <si>
+    <t>Rotten Orange (Using BFS)</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/rotten-oranges2536/1</t>
+  </si>
+  <si>
+    <t>Day 15</t>
+  </si>
+  <si>
+    <t>Reverse words in a string</t>
+  </si>
+  <si>
+    <t>Longest Palindrome in a string</t>
+  </si>
+  <si>
+    <t>Roman Number to Integer and vice versa</t>
+  </si>
+  <si>
+    <t>Implement ATOI</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Rabin Karp</t>
+  </si>
+  <si>
+    <t>Day 16</t>
+  </si>
+  <si>
+    <t>Prefix-function/Z-function</t>
+  </si>
+  <si>
+    <t>KMP Algorithm</t>
+  </si>
+  <si>
+    <t>Minimum characters to be inserted in the beginning to make a palindrome</t>
+  </si>
+  <si>
+    <t>Check for anagrams</t>
+  </si>
+  <si>
+    <t>Count and Say</t>
+  </si>
+  <si>
+    <t>Compare Version numbers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/roman-to-integer/</t>
+  </si>
+  <si>
+    <t>Day 17</t>
+  </si>
+  <si>
+    <t>Inorder</t>
+  </si>
+  <si>
+    <t>Preorder</t>
+  </si>
+  <si>
+    <t>Postorder</t>
+  </si>
+  <si>
+    <t>Left View</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/left-view-of-binary-tree/1</t>
+  </si>
+  <si>
+    <t>Bottom View</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/bottom-view-of-binary-tree/1</t>
+  </si>
+  <si>
+    <t>Top View</t>
+  </si>
+  <si>
+    <t>Day 18</t>
+  </si>
+  <si>
+    <t>Construct tree from inorder and preorder</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/construct-tree-1/1</t>
+  </si>
+  <si>
+    <t>Construct tree from inorder and postorder</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/tree-from-postorder-and-inorder/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/symmetric-tree/1</t>
+  </si>
+  <si>
+    <t>Symmetric Binary Tree</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/flatten-a-binary-tree-into-linked-list/</t>
+  </si>
+  <si>
+    <t>Flatten Binary tree to LinkedList</t>
+  </si>
+  <si>
+    <t>Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Binary Tree Mirror</t>
+  </si>
+  <si>
+    <t>Day 19</t>
+  </si>
+  <si>
+    <t>Level Order in spiral</t>
+  </si>
+  <si>
+    <t>Height of Binary Tree</t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>Check if Binary Tree is Height Balanced</t>
+  </si>
+  <si>
+    <t>LCA in Binary tree</t>
+  </si>
+  <si>
+    <t>Check if two trees identical</t>
+  </si>
+  <si>
+    <t>Day 20</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/populating-next-right-pointers-in-each-node/</t>
+  </si>
+  <si>
+    <t>Search given key in BST</t>
+  </si>
+  <si>
+    <t>Construct BST from given Keys</t>
+  </si>
+  <si>
+    <t>Check if BT is BST or not</t>
+  </si>
+  <si>
+    <t>LCA of two nodes in BST</t>
+  </si>
+  <si>
+    <t>Inorder predecessor/successor of given key in BST</t>
+  </si>
+  <si>
+    <t>Day 21</t>
+  </si>
+  <si>
+    <t>https://www.techiedelight.com/floor-ceil-bst-iterative-recursive/</t>
+  </si>
+  <si>
+    <t>Floor and Ceil in a BST</t>
+  </si>
+  <si>
+    <t>Kth smallest in BST</t>
+  </si>
+  <si>
+    <t>Kth largest in BST</t>
+  </si>
+  <si>
+    <t>Pair with a given sum in BST</t>
+  </si>
+  <si>
+    <t>BST Iterator</t>
+  </si>
+  <si>
+    <t>Size of largest BST in BT</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize BT</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/find-k-th-smallest-element-in-bst/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/kth-largest-element-in-bst/1</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-a-pair-with-given-sum-in-bst/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/implementing-forward-iterator-in-bst/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/serialize-deserialize-binary-tree/</t>
+  </si>
+  <si>
+    <t>Day 22</t>
+  </si>
+  <si>
+    <t>Convert Binary Tree to DLL</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/binary-tree-to-dll/1</t>
+  </si>
+  <si>
+    <t>Median in stream of running integers</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/find-median-in-a-stream-1587115620/1</t>
+  </si>
+  <si>
+    <t>K-th largest element in a stream</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/kth-largest-element-in-a-stream2220/1#</t>
+  </si>
+  <si>
+    <t>Distinct numbers in window</t>
+  </si>
+  <si>
+    <t>Flood-fill</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/kth-smallestlargest-element-unsorted-array/</t>
+  </si>
+  <si>
+    <t>K-th largest element in an unsorted array in O(n) using QuickSelect</t>
+  </si>
+  <si>
+    <t>Day 23</t>
+  </si>
+  <si>
+    <t>Clone a graph</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>Detect Cycle in Directed/Undirected graph</t>
+  </si>
+  <si>
+    <t>Topo Sort</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Bipartite check</t>
+  </si>
+  <si>
+    <t>Day 24</t>
+  </si>
+  <si>
+    <t>SCC</t>
+  </si>
+  <si>
+    <t>Dijkestra</t>
+  </si>
+  <si>
+    <t>Bellman Ford</t>
+  </si>
+  <si>
+    <t>Floyd Warshall</t>
+  </si>
+  <si>
+    <t>Prims</t>
+  </si>
+  <si>
+    <t>Kruskal</t>
+  </si>
+  <si>
+    <t>Day 25</t>
+  </si>
+  <si>
+    <t>Max product subarray</t>
+  </si>
+  <si>
+    <t>LIS</t>
+  </si>
+  <si>
+    <t>LCS</t>
+  </si>
+  <si>
+    <t>0-1 Knapsack</t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>Max sum increasing subsequence</t>
+  </si>
+  <si>
+    <t>MCM</t>
+  </si>
+  <si>
+    <t>Day 26</t>
+  </si>
+  <si>
+    <t>Max sum path in Grid</t>
+  </si>
+  <si>
+    <t>Coin Change</t>
+  </si>
+  <si>
+    <t>Subset sum</t>
+  </si>
+  <si>
+    <t>Rod cutting</t>
+  </si>
+  <si>
+    <t>Egg Dropping</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/clone-graph/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/maximum-product-subarray/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,6 +897,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -586,7 +956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -608,6 +978,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -892,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z97"/>
+  <dimension ref="A1:Z213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,34 +1277,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1595,9 +1966,596 @@
       </c>
       <c r="C96" s="8"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C113" s="3"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
